--- a/regions/4/soflis meurneoba/2. mravaltslovani kulturebis tsarmoeba.xlsx
+++ b/regions/4/soflis meurneoba/2. mravaltslovani kulturebis tsarmoeba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\აჭარის არ\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\აჭარის არ\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
   <si>
     <t>მანდარინი</t>
   </si>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -227,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -259,12 +259,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -293,6 +302,9 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -302,7 +314,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -623,28 +635,30 @@
     <col min="17" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="2">
         <v>2006</v>
@@ -694,8 +708,14 @@
       <c r="Q2" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
+      <c r="R2" s="2">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -747,8 +767,14 @@
       <c r="Q3" s="7">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
+      <c r="R3" s="7">
+        <v>4</v>
+      </c>
+      <c r="S3" s="7">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -800,8 +826,14 @@
       <c r="Q4" s="7">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+      <c r="R4" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S4" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -853,8 +885,14 @@
       <c r="Q5" s="7">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
+      <c r="R5" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="S5" s="7">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -906,8 +944,14 @@
       <c r="Q6" s="7">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+      <c r="R6" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="S6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -959,8 +1003,14 @@
       <c r="Q7" s="9">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1">
+      <c r="R7" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="S7" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1012,8 +1062,14 @@
       <c r="Q8" s="9">
         <v>49.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1">
+      <c r="R8" s="9">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="S8" s="9">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1065,8 +1121,14 @@
       <c r="Q9" s="9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="R9" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1084,28 +1146,30 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:17" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="2">
         <v>2006</v>
@@ -1155,8 +1219,14 @@
       <c r="Q12" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1">
+      <c r="R12" s="2">
+        <v>2022</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1208,8 +1278,14 @@
       <c r="Q13" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1">
+      <c r="R13" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S13" s="7">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1261,8 +1337,14 @@
       <c r="Q14" s="7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1">
+      <c r="R14" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="S14" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1314,8 +1396,14 @@
       <c r="Q15" s="7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1">
+      <c r="R15" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1367,8 +1455,14 @@
       <c r="Q16" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1">
+      <c r="R16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1420,8 +1514,12 @@
       <c r="Q17" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1">
+      <c r="R17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1473,8 +1571,14 @@
       <c r="Q18" s="7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1">
+      <c r="R18" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="S18" s="7">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -1526,8 +1630,14 @@
       <c r="Q19" s="7">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1">
+      <c r="R19" s="7">
+        <v>2</v>
+      </c>
+      <c r="S19" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -1579,8 +1689,14 @@
       <c r="Q20" s="9">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1">
+      <c r="R20" s="9">
+        <v>4</v>
+      </c>
+      <c r="S20" s="9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>0</v>
       </c>
@@ -1632,8 +1748,14 @@
       <c r="Q21" s="7">
         <v>46.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1">
+      <c r="R21" s="7">
+        <v>35.4</v>
+      </c>
+      <c r="S21" s="7">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>1</v>
       </c>
@@ -1685,8 +1807,14 @@
       <c r="Q22" s="7">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1">
+      <c r="R22" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="S22" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>2</v>
       </c>
@@ -1738,77 +1866,84 @@
       <c r="Q23" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="R23" s="7">
+        <v>1</v>
+      </c>
+      <c r="S23" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15" customHeight="1">
+      <c r="A24" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-    </row>
-    <row r="25" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="13" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" spans="1:17" s="6" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A26" s="14" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="1:21" s="6" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="U26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A11:Q11"/>
     <mergeCell ref="A24:Q24"/>
     <mergeCell ref="A25:Q25"/>
     <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A11:S11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
